--- a/Pesquisa.xlsx
+++ b/Pesquisa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavopinheiro/P2-CD21-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D015600-65C9-014F-90CE-633EC211A371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDE754B-F797-7140-9727-B6444C03E468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="480" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="153">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>pipoca</t>
-  </si>
-  <si>
-    <t>Outro</t>
   </si>
   <si>
     <t>maria julia feitosa aragao</t>
@@ -754,7 +751,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -776,19 +773,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1208,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -1231,7 +1228,7 @@
         <v>44336.433530104172</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3">
         <v>20</v>
@@ -1260,7 +1257,7 @@
         <v>44336.433554988427</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3">
         <v>18</v>
@@ -1289,7 +1286,7 @@
         <v>44336.434476817129</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3">
         <v>19</v>
@@ -1318,7 +1315,7 @@
         <v>44336.434554259264</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
@@ -1347,7 +1344,7 @@
         <v>44336.434750613422</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3">
         <v>19</v>
@@ -1376,7 +1373,7 @@
         <v>44336.435298553246</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3">
         <v>15</v>
@@ -1405,7 +1402,7 @@
         <v>44336.435772557874</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3">
         <v>20</v>
@@ -1434,7 +1431,7 @@
         <v>44336.435954224537</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3">
         <v>19</v>
@@ -1463,7 +1460,7 @@
         <v>44336.43663462963</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3">
         <v>23</v>
@@ -1492,7 +1489,7 @@
         <v>44336.437757418986</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3">
         <v>18</v>
@@ -1521,7 +1518,7 @@
         <v>44336.437878541663</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3">
         <v>19</v>
@@ -1550,7 +1547,7 @@
         <v>44336.438171388887</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3">
         <v>19</v>
@@ -1579,7 +1576,7 @@
         <v>44336.438218657408</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3">
         <v>19</v>
@@ -1608,7 +1605,7 @@
         <v>44336.438683784727</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3">
         <v>14</v>
@@ -1637,7 +1634,7 @@
         <v>44336.439826504633</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3">
         <v>18</v>
@@ -1666,7 +1663,7 @@
         <v>44336.440967743052</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>15</v>
@@ -1695,7 +1692,7 @@
         <v>44336.440982824075</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="3">
         <v>49</v>
@@ -1724,7 +1721,7 @@
         <v>44336.441012048614</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3">
         <v>20</v>
@@ -1753,7 +1750,7 @@
         <v>44336.442145000001</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="3">
         <v>42</v>
@@ -1782,7 +1779,7 @@
         <v>44336.442688981479</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="3">
         <v>20</v>
@@ -1811,7 +1808,7 @@
         <v>44336.442838900461</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="3">
         <v>21</v>
@@ -1840,7 +1837,7 @@
         <v>44336.445096122683</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="3">
         <v>19</v>
@@ -1869,7 +1866,7 @@
         <v>44336.445704861108</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="3">
         <v>18</v>
@@ -1898,7 +1895,7 @@
         <v>44336.445871504635</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="3">
         <v>19</v>
@@ -1927,7 +1924,7 @@
         <v>44336.44755600694</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="3">
         <v>18</v>
@@ -1956,7 +1953,7 @@
         <v>44336.44778884259</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="3">
         <v>50</v>
@@ -1985,7 +1982,7 @@
         <v>44336.44798394676</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="3">
         <v>22</v>
@@ -2014,7 +2011,7 @@
         <v>44336.448191365736</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="3">
         <v>19</v>
@@ -2043,7 +2040,7 @@
         <v>44336.44923755787</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="3">
         <v>21</v>
@@ -2072,7 +2069,7 @@
         <v>44336.449967581022</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="3">
         <v>15</v>
@@ -2101,7 +2098,7 @@
         <v>44336.452243576394</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="3">
         <v>18</v>
@@ -2130,7 +2127,7 @@
         <v>44336.45236166667</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="3">
         <v>50</v>
@@ -2159,7 +2156,7 @@
         <v>44336.453015694446</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="3">
         <v>21</v>
@@ -2188,7 +2185,7 @@
         <v>44336.454299710647</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="3">
         <v>34</v>
@@ -2217,7 +2214,7 @@
         <v>44336.455885659721</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="3">
         <v>23</v>
@@ -2246,7 +2243,7 @@
         <v>44336.456045740742</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="3">
         <v>19</v>
@@ -2275,7 +2272,7 @@
         <v>44336.456824259258</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" s="3">
         <v>19</v>
@@ -2304,7 +2301,7 @@
         <v>44336.45926570602</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="3">
         <v>18</v>
@@ -2333,7 +2330,7 @@
         <v>44336.459283171294</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="3">
         <v>17</v>
@@ -2362,7 +2359,7 @@
         <v>44336.459856608795</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="3">
         <v>19</v>
@@ -2391,7 +2388,7 @@
         <v>44336.460137349539</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="3">
         <v>12</v>
@@ -2420,7 +2417,7 @@
         <v>44336.46091130787</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3">
         <v>52</v>
@@ -2449,7 +2446,7 @@
         <v>44336.462050624999</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="3">
         <v>55</v>
@@ -2478,7 +2475,7 @@
         <v>44336.462366064814</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60" s="3">
         <v>18</v>
@@ -2507,7 +2504,7 @@
         <v>44336.4626465162</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="3">
         <v>17</v>
@@ -2536,7 +2533,7 @@
         <v>44336.462771712962</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="3">
         <v>49</v>
@@ -2565,7 +2562,7 @@
         <v>44336.463794282405</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="3">
         <v>17</v>
@@ -2594,7 +2591,7 @@
         <v>44336.46391958333</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="3">
         <v>19</v>
@@ -2623,7 +2620,7 @@
         <v>44336.463963877315</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="3">
         <v>19</v>
@@ -2652,7 +2649,7 @@
         <v>44336.466433587964</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" s="3">
         <v>47</v>
@@ -2681,7 +2678,7 @@
         <v>44336.468610057869</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67" s="3">
         <v>24</v>
@@ -2710,7 +2707,7 @@
         <v>44336.469255671298</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" s="3">
         <v>52</v>
@@ -2739,7 +2736,7 @@
         <v>44336.469567511573</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" s="3">
         <v>49</v>
@@ -2768,7 +2765,7 @@
         <v>44336.469595000002</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70" s="3">
         <v>34</v>
@@ -2797,7 +2794,7 @@
         <v>44336.469877326388</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C71" s="3">
         <v>18</v>
@@ -2826,7 +2823,7 @@
         <v>44336.471020578705</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="3">
         <v>19</v>
@@ -2855,7 +2852,7 @@
         <v>44336.474067476855</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="3">
         <v>59</v>
@@ -2884,7 +2881,7 @@
         <v>44336.47677789352</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" s="3">
         <v>19</v>
@@ -2913,7 +2910,7 @@
         <v>44336.477332870374</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" s="3">
         <v>26</v>
@@ -2942,7 +2939,7 @@
         <v>44336.477959340278</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="3">
         <v>17</v>
@@ -2971,7 +2968,7 @@
         <v>44336.47852488426</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" s="3">
         <v>66</v>
@@ -3000,7 +2997,7 @@
         <v>44336.480205520835</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" s="3">
         <v>20</v>
@@ -3029,7 +3026,7 @@
         <v>44336.48156591435</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="3">
         <v>21</v>
@@ -3058,7 +3055,7 @@
         <v>44336.48218525463</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" s="3">
         <v>59</v>
@@ -3087,7 +3084,7 @@
         <v>44336.484697337961</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="3">
         <v>18</v>
@@ -3116,7 +3113,7 @@
         <v>44336.488561655089</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C82" s="3">
         <v>17</v>
@@ -3145,7 +3142,7 @@
         <v>44336.489219884257</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" s="3">
         <v>30</v>
@@ -3174,7 +3171,7 @@
         <v>44336.494425543977</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C84" s="3">
         <v>19</v>
@@ -3203,7 +3200,7 @@
         <v>44336.496324050924</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="3">
         <v>52</v>
@@ -3232,7 +3229,7 @@
         <v>44336.496813321763</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" s="3">
         <v>19</v>
@@ -3261,7 +3258,7 @@
         <v>44336.497495937496</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" s="3">
         <v>48</v>
@@ -3290,7 +3287,7 @@
         <v>44336.497747164351</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="3">
         <v>53</v>
@@ -3319,7 +3316,7 @@
         <v>44336.498334988428</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89" s="3">
         <v>49</v>
@@ -3348,7 +3345,7 @@
         <v>44336.501783402782</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" s="3">
         <v>59</v>
@@ -3377,7 +3374,7 @@
         <v>44336.503630358799</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C91" s="3">
         <v>19</v>
@@ -3406,7 +3403,7 @@
         <v>44336.505766122689</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" s="3">
         <v>52</v>
@@ -3435,7 +3432,7 @@
         <v>44336.506119525468</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" s="3">
         <v>45</v>
@@ -3464,7 +3461,7 @@
         <v>44336.510618275468</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="3">
         <v>52</v>
@@ -3493,7 +3490,7 @@
         <v>44336.515149340281</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="3">
         <v>19</v>
@@ -3522,7 +3519,7 @@
         <v>44336.515177118054</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" s="3">
         <v>49</v>
@@ -3551,7 +3548,7 @@
         <v>44336.515202314811</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" s="3">
         <v>21</v>
@@ -3606,7 +3603,7 @@
         <v>44336.515716759255</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C99" s="3">
         <v>16</v>
@@ -3635,7 +3632,7 @@
         <v>44336.516601990741</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C100" s="3">
         <v>51</v>
@@ -3664,7 +3661,7 @@
         <v>44336.518528067128</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101" s="3">
         <v>19</v>
@@ -3693,7 +3690,7 @@
         <v>44336.51905761574</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102" s="3">
         <v>19</v>
@@ -3748,7 +3745,7 @@
         <v>44336.521881134264</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C104" s="3">
         <v>58</v>
@@ -3777,7 +3774,7 @@
         <v>44336.521989421293</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C105" s="3">
         <v>57</v>
@@ -3806,7 +3803,7 @@
         <v>44336.523114606476</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" s="3">
         <v>19</v>
@@ -3861,7 +3858,7 @@
         <v>44336.526804120367</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="3">
         <v>48</v>
@@ -3890,7 +3887,7 @@
         <v>44336.527016377317</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="3">
         <v>52</v>
@@ -3919,7 +3916,7 @@
         <v>44336.527394363424</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C110" s="3">
         <v>57</v>
@@ -3948,7 +3945,7 @@
         <v>44336.527547581019</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111" s="3">
         <v>58</v>
@@ -3977,7 +3974,7 @@
         <v>44336.527937465275</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C112" s="3">
         <v>20</v>
@@ -4006,7 +4003,7 @@
         <v>44336.528269351853</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C113" s="3">
         <v>54</v>
@@ -4035,7 +4032,7 @@
         <v>44336.529673437501</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C114" s="3">
         <v>54</v>
@@ -4064,7 +4061,7 @@
         <v>44336.533168437498</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115" s="3">
         <v>42</v>
@@ -4093,7 +4090,7 @@
         <v>44336.534174247688</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116" s="3">
         <v>48</v>
@@ -4122,7 +4119,7 @@
         <v>44336.535612858796</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117" s="3">
         <v>57</v>
@@ -4151,7 +4148,7 @@
         <v>44336.541027361112</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C118" s="3">
         <v>43</v>
@@ -4180,7 +4177,7 @@
         <v>44336.541487199072</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119" s="3">
         <v>43</v>
@@ -4209,7 +4206,7 @@
         <v>44336.547000289356</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C120" s="3">
         <v>15</v>
@@ -4238,7 +4235,7 @@
         <v>44336.547217835643</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121" s="3">
         <v>57</v>
@@ -4267,7 +4264,7 @@
         <v>44336.547439594906</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C122" s="3">
         <v>19</v>
@@ -4296,7 +4293,7 @@
         <v>44336.548813726855</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C123" s="3">
         <v>18</v>
@@ -4325,7 +4322,7 @@
         <v>44336.550828900465</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124" s="3">
         <v>66</v>
@@ -4354,7 +4351,7 @@
         <v>44336.559186458333</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C125" s="3">
         <v>53</v>
@@ -4383,7 +4380,7 @@
         <v>44336.561008900462</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C126" s="3">
         <v>19</v>
@@ -4412,7 +4409,7 @@
         <v>44336.562848958332</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="3">
         <v>19</v>
@@ -4441,7 +4438,7 @@
         <v>44336.563714155098</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C128" s="3">
         <v>26</v>
@@ -4470,7 +4467,7 @@
         <v>44336.572587523144</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" s="3">
         <v>54</v>
@@ -4499,7 +4496,7 @@
         <v>44336.573718240739</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="3">
         <v>31</v>
@@ -4528,7 +4525,7 @@
         <v>44336.575739884254</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C131" s="3">
         <v>45</v>
@@ -4557,7 +4554,7 @@
         <v>44336.575847650463</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C132" s="3">
         <v>54</v>
@@ -4586,7 +4583,7 @@
         <v>44336.588304490739</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" s="3">
         <v>53</v>
@@ -4615,7 +4612,7 @@
         <v>44336.589576701386</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C134" s="3">
         <v>47</v>
@@ -4644,7 +4641,7 @@
         <v>44336.593963125</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C135" s="3">
         <v>53</v>
@@ -4673,7 +4670,7 @@
         <v>44336.607629618054</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="3">
         <v>45</v>
@@ -4702,7 +4699,7 @@
         <v>44336.619558900464</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C137" s="3">
         <v>56</v>
@@ -4731,7 +4728,7 @@
         <v>44336.642366145832</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C138" s="3">
         <v>48</v>
@@ -4760,7 +4757,7 @@
         <v>44336.666385300923</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C139" s="3">
         <v>57</v>
@@ -4789,7 +4786,7 @@
         <v>44336.668656828704</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C140" s="3">
         <v>30</v>
@@ -4818,7 +4815,7 @@
         <v>44336.676954513889</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C141" s="3">
         <v>53</v>
@@ -4847,7 +4844,7 @@
         <v>44336.683969837963</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C142" s="3">
         <v>14</v>
@@ -4905,7 +4902,7 @@
         <v>44336.686641689812</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C144" s="3">
         <v>19</v>
@@ -4963,7 +4960,7 @@
         <v>44336.694986967588</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C146" s="3">
         <v>53</v>
@@ -4992,7 +4989,7 @@
         <v>44336.711656712963</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C147" s="3">
         <v>46</v>
@@ -5021,7 +5018,7 @@
         <v>44336.719442106478</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C148" s="3">
         <v>48</v>
@@ -5050,7 +5047,7 @@
         <v>44336.723426469907</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C149" s="3">
         <v>36</v>
@@ -5079,7 +5076,7 @@
         <v>44336.72356525463</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C150" s="3">
         <v>52</v>
@@ -5108,7 +5105,7 @@
         <v>44336.72531199074</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C151" s="3">
         <v>45</v>
@@ -5137,7 +5134,7 @@
         <v>44336.729561122687</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C152" s="3">
         <v>32</v>
@@ -5166,7 +5163,7 @@
         <v>44336.730120671295</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C153" s="3">
         <v>50</v>
@@ -5195,7 +5192,7 @@
         <v>44336.758324062495</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C154" s="3">
         <v>48</v>
@@ -5224,7 +5221,7 @@
         <v>44336.770533171293</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C155" s="3">
         <v>52</v>
@@ -5253,7 +5250,7 @@
         <v>44336.778139780094</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C156" s="3">
         <v>18</v>
@@ -5334,7 +5331,7 @@
         <v>44336.800338125002</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C159" s="3">
         <v>58</v>
@@ -5363,7 +5360,7 @@
         <v>44336.800895127315</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C160" s="3">
         <v>32</v>
@@ -5392,7 +5389,7 @@
         <v>44336.844496122685</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C161" s="3">
         <v>20</v>
@@ -5450,7 +5447,7 @@
         <v>44336.917085497684</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C163" s="3">
         <v>47</v>
@@ -5479,7 +5476,7 @@
         <v>44336.931447939816</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C164" s="3">
         <v>17</v>
@@ -5508,7 +5505,7 @@
         <v>44336.933475925922</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C165" s="3">
         <v>17</v>
@@ -5537,7 +5534,7 @@
         <v>44337.281271481479</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C166" s="3">
         <v>43</v>
@@ -5566,7 +5563,7 @@
         <v>44337.445373877315</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C167" s="3">
         <v>56</v>
@@ -5595,7 +5592,7 @@
         <v>44337.452232418982</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C168" s="3">
         <v>19</v>
@@ -5624,7 +5621,7 @@
         <v>44337.546593171297</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C169" s="3">
         <v>43</v>
@@ -5679,7 +5676,7 @@
         <v>44337.618230879627</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C171" s="3">
         <v>58</v>
